--- a/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.38648726380335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.574951964990919</v>
+        <v>3.574951964990913</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3.859004802304505</v>
@@ -664,7 +664,7 @@
         <v>0.3980284611351859</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.592287316235458</v>
+        <v>1.592287316235463</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.078119692522624</v>
+        <v>5.398521253355629</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.90993792551407</v>
+        <v>-2.864368511750518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.948541972897562</v>
+        <v>-2.1820843388675</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2313493213981157</v>
+        <v>-0.1865035835080901</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.422366258741614</v>
+        <v>-5.231451186123528</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.479880589865911</v>
+        <v>-3.173733656554824</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.538258609671686</v>
+        <v>3.710242436648069</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-3.168663446253398</v>
+        <v>-3.086853792265214</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.474629522827438</v>
+        <v>-1.075848144698851</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.30991038655359</v>
+        <v>15.77409933467972</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.795913611515072</v>
+        <v>8.105096516503449</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.878250693845217</v>
+        <v>8.411159770645526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.291509228723091</v>
+        <v>7.546167937151611</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.133903084186084</v>
+        <v>3.493101080273332</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.697723267190587</v>
+        <v>4.035272030933259</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.950571209083027</v>
+        <v>9.712385080155466</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.969397975840844</v>
+        <v>3.960661579477787</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.351231103181666</v>
+        <v>4.521916143519535</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.07734126649458969</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.1158570241808351</v>
+        <v>0.1158570241808349</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.1698560829291348</v>
@@ -769,7 +769,7 @@
         <v>0.01523701558125748</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.06095470303335447</v>
+        <v>0.06095470303335469</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1782772629504183</v>
+        <v>0.1684627102926687</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.08939565169875517</v>
+        <v>-0.08966529369715545</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.05764614607560856</v>
+        <v>-0.06295196178506944</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01241701715975879</v>
+        <v>-0.008868947267007458</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2218053503995426</v>
+        <v>-0.2163375203180911</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1391973698141076</v>
+        <v>-0.1288327765557303</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1318897391103189</v>
+        <v>0.1331153913570386</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1153577222658127</v>
+        <v>-0.1133122558070062</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0518847098507671</v>
+        <v>-0.04015551974169322</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5728375428970308</v>
+        <v>0.5604797762441496</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2742230433193411</v>
+        <v>0.2804262613564615</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3113332457513551</v>
+        <v>0.2891608602793518</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3438868204036777</v>
+        <v>0.3559549611224496</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1494584354356656</v>
+        <v>0.1682619090999689</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1772757434450975</v>
+        <v>0.1942068033544682</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4046444786561286</v>
+        <v>0.3902762312223785</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.16096709190264</v>
+        <v>0.1612386241119491</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.177254079413105</v>
+        <v>0.1865701828465731</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.93313213480007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-3.66102433604486</v>
+        <v>-3.661024336044858</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.131936722893843</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4018712464443606</v>
+        <v>-0.6167654994130013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.823914790432657</v>
+        <v>-4.776534902088626</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.329891364715151</v>
+        <v>-6.294857950959109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.20934752439197</v>
+        <v>-0.2022332483564291</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.518758114029277</v>
+        <v>-2.584726312783938</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.416072703272095</v>
+        <v>-4.197642008592977</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6498051397142964</v>
+        <v>0.6392481788398413</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.842211248951438</v>
+        <v>-2.800201440312732</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-4.606182597249254</v>
+        <v>-4.461379970761494</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.752330533774074</v>
+        <v>5.570785199226626</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7487001541510564</v>
+        <v>0.7535794505417281</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.8886705532105053</v>
+        <v>-0.9081753963281348</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.854275973255947</v>
+        <v>4.650613653738455</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.230627884009338</v>
+        <v>2.156694685515293</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.2814513422788489</v>
+        <v>-0.0332098491483651</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.523117137483875</v>
+        <v>4.398179757299379</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6788616299747449</v>
+        <v>0.8311356024974622</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-1.267706202037377</v>
+        <v>-1.126834246086243</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.1060978857000438</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.2009313975792651</v>
+        <v>-0.2009313975792649</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1836695350239467</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01900917096956422</v>
+        <v>-0.0313419913659027</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2393145723921992</v>
+        <v>-0.2393032672912805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3196875221649463</v>
+        <v>-0.3235675833791015</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0162690101191972</v>
+        <v>-0.01836344103310699</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1976630474793747</v>
+        <v>-0.1965430197716669</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3311044008970753</v>
+        <v>-0.3219112637513191</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03898081752347116</v>
+        <v>0.03936130514405604</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1804122383074772</v>
+        <v>-0.1747712338143711</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2890823941636333</v>
+        <v>-0.2797208954331248</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.347925314636565</v>
+        <v>0.3372068358376066</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.04749143299711178</v>
+        <v>0.0447138263538941</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.05246166042735868</v>
+        <v>-0.06102391554427541</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.458128130007407</v>
+        <v>0.4470702622165763</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2254330126522089</v>
+        <v>0.2028860212019339</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02599845844672575</v>
+        <v>0.0001728164135258751</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.324859921984344</v>
+        <v>0.3189642698146776</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04923770319537408</v>
+        <v>0.06348769714367952</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.09094633649543452</v>
+        <v>-0.07619659013553258</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.372941493078556</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.1149368867644801</v>
+        <v>-0.1149368867644815</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.53128277090877</v>
@@ -1083,7 +1083,7 @@
         <v>1.584138342979831</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-1.391491300282098</v>
+        <v>-1.391491300282099</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.646517089966923</v>
@@ -1092,7 +1092,7 @@
         <v>0.9223992465345859</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.8321487795323074</v>
+        <v>-0.8321487795323088</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.274970393248229</v>
+        <v>-1.917720863135775</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.579386857995222</v>
+        <v>-3.219846154701625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.557729134640115</v>
+        <v>-3.963912093792885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.379340077545686</v>
+        <v>-2.038968105926493</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.91583757620078</v>
+        <v>-1.945961715630178</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.682870262270435</v>
+        <v>-4.33640745969268</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.19961827191954</v>
+        <v>-0.9833891500724803</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.654404329503604</v>
+        <v>-1.726119724142095</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-3.352656029968688</v>
+        <v>-3.122252642144142</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.359122650542889</v>
+        <v>5.881877731286752</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.208658892072616</v>
+        <v>4.113804603136758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.376613785592658</v>
+        <v>3.275052936491471</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.30207553553198</v>
+        <v>5.031128619455927</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.911273871064299</v>
+        <v>5.085349833326089</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.084190716752363</v>
+        <v>1.28669214774509</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.618444378874548</v>
+        <v>4.543712816983605</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.323497382365801</v>
+        <v>3.347795729105728</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.32661123586297</v>
+        <v>1.348995329775559</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.04486680635446685</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.01382750682654928</v>
+        <v>-0.01382750682654944</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2474077388988727</v>
@@ -1188,7 +1188,7 @@
         <v>0.255947557815889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2248217787338748</v>
+        <v>-0.2248217787338749</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.2254642779857667</v>
@@ -1197,7 +1197,7 @@
         <v>0.1263078782490582</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.1139495149471894</v>
+        <v>-0.1139495149471896</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2202438742750494</v>
+        <v>-0.2130200262977395</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3425004082981316</v>
+        <v>-0.3396494903038824</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3444777430786478</v>
+        <v>-0.3629784019048424</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3071671649447177</v>
+        <v>-0.2602987318826261</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2500375045146291</v>
+        <v>-0.2668745619980289</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5512261532300636</v>
+        <v>-0.5300269636102015</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1361460089390966</v>
+        <v>-0.1250060604481137</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1936543752107194</v>
+        <v>-0.2034481008712271</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3700512450622516</v>
+        <v>-0.3538337861819809</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.010316930858087</v>
+        <v>0.8768819432145201</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6871279409571717</v>
+        <v>0.6625697538648928</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5296367098865337</v>
+        <v>0.5143626463163676</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.172631790381537</v>
+        <v>1.167490642412156</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.154735246760741</v>
+        <v>1.093818385361854</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2814893432508256</v>
+        <v>0.3167298187239532</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7745965577680985</v>
+        <v>0.7256954120135455</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5715459400051401</v>
+        <v>0.5716087600322206</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.236871037941476</v>
+        <v>0.223186935265856</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-1.609351063995615</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.181694009041723</v>
+        <v>-3.181694009041726</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.834655547148993</v>
@@ -1306,7 +1306,7 @@
         <v>-1.830256710947978</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-3.30850261227611</v>
+        <v>-3.308502612276107</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.461151053750212</v>
+        <v>2.285259749232126</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.298020251480052</v>
+        <v>-4.369797691158775</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.649529043695003</v>
+        <v>-5.595303626407874</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.069561060515013</v>
+        <v>0.9775209147213548</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.513213860165429</v>
+        <v>-3.531783545565914</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.704638769589539</v>
+        <v>-4.626823275858508</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.358292757742997</v>
+        <v>2.391736260116296</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.296277870661786</v>
+        <v>-3.166148370910183</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.703361653469924</v>
+        <v>-4.557917089854746</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.164555681361015</v>
+        <v>6.945004285930663</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1216784924951384</v>
+        <v>0.0801699259974598</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.576085057066777</v>
+        <v>-1.478967672929842</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.020705077984449</v>
+        <v>4.840061833297874</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2181395653519313</v>
+        <v>0.1547911685037721</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.644893294891353</v>
+        <v>-1.529780687636838</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.307463146294944</v>
+        <v>5.380410709209137</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.4193023393927152</v>
+        <v>-0.3615850542381435</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-2.014965340330288</v>
+        <v>-2.035938900346416</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.1095763382139196</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.2166328942315271</v>
+        <v>-0.2166328942315273</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2232953757657205</v>
@@ -1411,7 +1411,7 @@
         <v>-0.1065774630847127</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1926570261517565</v>
+        <v>-0.1926570261517564</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1173908216151366</v>
+        <v>0.1112189704342461</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.205172079716484</v>
+        <v>-0.2073299061964582</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2659662752612261</v>
+        <v>-0.26609653611732</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06719859219731868</v>
+        <v>0.06245236909197805</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2267564996175996</v>
+        <v>-0.2288743264304174</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3016014433696594</v>
+        <v>-0.2949551601835614</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1317549181078202</v>
+        <v>0.1339850823193538</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1818352179462455</v>
+        <v>-0.1779443564796594</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2579055404341661</v>
+        <v>-0.2567761675999163</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3821361209332304</v>
+        <v>0.3689388507030011</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.006962355399781482</v>
+        <v>0.004509326825706723</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.08128897332928584</v>
+        <v>-0.0788761924655678</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3634360273873662</v>
+        <v>0.344141316048768</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01779386457015785</v>
+        <v>0.01059862986072925</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1225664178160226</v>
+        <v>-0.1136947629683404</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3217811305308835</v>
+        <v>0.3299215192937739</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.0255062111987658</v>
+        <v>-0.02283094347562241</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1228110991873299</v>
+        <v>-0.1253247759434604</v>
       </c>
     </row>
     <row r="28">
